--- a/biology/Botanique/Carline/Carline.xlsx
+++ b/biology/Botanique/Carline/Carline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlina
 Carlina (les carlines) est un genre de plantes herbacées de la famille des Astéracées (ou Composées). Elles sont proches des chardons et des cirses, mais s'en distinguent notamment par la présence de bractées extérieures identiques aux feuilles de la plante, et de bractées intérieures semblables à des ligules. On distingue nettement dans l'involucre des carlines trois types de bractées :
@@ -517,9 +529,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique Carlina est une probable variante de cardina, dérivé de cardo (= chardon), le mot s'étant croisé avec Carlo (= Charles) sans doute sous l'influence d'une légende relatée par Tabernaemontanus et voulant qu'un ange ait montré à Charlemagne (ou Charles Quint) la Carline acaule en la lui présentant comme un remède contre la peste bubonique qui décimait son armée[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Carlina est une probable variante de cardina, dérivé de cardo (= chardon), le mot s'étant croisé avec Carlo (= Charles) sans doute sous l'influence d'une légende relatée par Tabernaemontanus et voulant qu'un ange ait montré à Charlemagne (ou Charles Quint) la Carline acaule en la lui présentant comme un remède contre la peste bubonique qui décimait son armée. 
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plantes à tige érigée :
 Carlina vulgaris, carline commune
@@ -586,7 +602,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne pas confondre avec Carlina gummifera (synonyme Atractylis gummifera), le Chardon à glu qui est un toxique mortel.
 </t>
@@ -617,9 +635,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (21 avril 2021)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 avril 2021) :
 Carlina acanthifolia
 Carlina acaulis
 Carlina atlantica
